--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Navn</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Michael Bedholm Laursen</t>
+  </si>
+  <si>
+    <t>System Analyst</t>
+  </si>
+  <si>
+    <t>Samtale med Team 7 (kunden)</t>
+  </si>
+  <si>
+    <t>Business-process analyst</t>
+  </si>
+  <si>
+    <t>Lavet udkast til domænemodel for UC1/UC2 + dataordborg for UC1/UC2. Har gennemgået rettelser med anden gruppe af samme opgaver.</t>
   </si>
 </sst>
 </file>
@@ -389,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +465,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\git\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -56,13 +56,16 @@
     <t>System Analyst</t>
   </si>
   <si>
-    <t>Samtale med Team 7 (kunden)</t>
-  </si>
-  <si>
     <t>Business-process analyst</t>
   </si>
   <si>
     <t>Lavet udkast til domænemodel for UC1/UC2 + dataordborg for UC1/UC2. Har gennemgået rettelser med anden gruppe af samme opgaver.</t>
+  </si>
+  <si>
+    <t>Samtale med Team 5 (kunden) UC5</t>
+  </si>
+  <si>
+    <t>Samtale med Team 7 (kunden) UC1+UC2</t>
   </si>
 </sst>
 </file>
@@ -401,21 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -423,7 +426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -437,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42058</v>
       </c>
@@ -451,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42059</v>
       </c>
@@ -465,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42059</v>
       </c>
@@ -473,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42059</v>
       </c>
@@ -490,7 +493,35 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Navn</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Samtale med Team 7 (kunden) UC1+UC2</t>
+  </si>
+  <si>
+    <t>Lavet udkast til Muckup for UC5 + dataordborg for UC5 + Fully dressed UC5. *Mangler at lave Test case for UC5*!</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Lavet udkast til domænemodel for UC1/UC2 + dataordborg for UC1/UC2. Har gennemgået rettelser med anden gruppe af samme opgaver.</t>
+  </si>
+  <si>
+    <t>Udarbejdet SSd til use case 5 sammen med Lasse M.</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +496,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>42250</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Navn</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Udarbejdet SSd til use case 5 sammen med Lasse M.</t>
+  </si>
+  <si>
+    <t>Brugertests af release v2</t>
+  </si>
+  <si>
+    <t>Udarbejdet brugertests sammen med Karsten og dokumentation på baggrund af feedback. Derudover oprettet et dokument til bugs i programmet samt forbedringer.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -510,6 +516,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>42280</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\git\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Navn</t>
   </si>
@@ -56,22 +56,16 @@
     <t>System Analyst</t>
   </si>
   <si>
-    <t>Samtale med Team 7 (kunden)</t>
-  </si>
-  <si>
     <t>Business-process analyst</t>
   </si>
   <si>
     <t>Lavet udkast til domænemodel for UC1/UC2 + dataordborg for UC1/UC2. Har gennemgået rettelser med anden gruppe af samme opgaver.</t>
   </si>
   <si>
-    <t>Udarbejdet SSd til use case 5 sammen med Lasse M.</t>
-  </si>
-  <si>
-    <t>Brugertests af release v2</t>
-  </si>
-  <si>
-    <t>Udarbejdet brugertests sammen med Karsten og dokumentation på baggrund af feedback. Derudover oprettet et dokument til bugs i programmet samt forbedringer.</t>
+    <t>Samtale med Team 5 (kunden) UC5</t>
+  </si>
+  <si>
+    <t>Samtale med Team 7 (kunden) UC1+UC2</t>
   </si>
 </sst>
 </file>
@@ -413,18 +407,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -432,7 +426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -446,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42058</v>
       </c>
@@ -460,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42059</v>
       </c>
@@ -474,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42059</v>
       </c>
@@ -482,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42059</v>
       </c>
@@ -499,35 +493,35 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>42250</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>42061</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>42280</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Michael).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox\DMU - Michael\UP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10410" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10416" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Navn</t>
   </si>
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>Samtale med Team 7 (kunden) UC1+UC2</t>
+  </si>
+  <si>
+    <t>Lavet Junit test.</t>
+  </si>
+  <si>
+    <t>Set på Junit test og lavet Brugervejlednings dokument</t>
+  </si>
+  <si>
+    <t>Fully Dressed Use Case 5</t>
+  </si>
+  <si>
+    <t>Brugertests af release v2</t>
+  </si>
+  <si>
+    <t>Test Designer</t>
+  </si>
+  <si>
+    <t>Use Case Author</t>
+  </si>
+  <si>
+    <t>Design reviewer and Performance Tester</t>
   </si>
 </sst>
 </file>
@@ -404,21 +425,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -426,7 +447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -440,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42058</v>
       </c>
@@ -454,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42059</v>
       </c>
@@ -468,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42059</v>
       </c>
@@ -482,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42059</v>
       </c>
@@ -496,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42061</v>
       </c>
@@ -510,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42061</v>
       </c>
@@ -522,6 +543,62 @@
       </c>
       <c r="D8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>42072</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>42073</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>42074</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>42075</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
